--- a/prime-gen/key_length_results.xlsx
+++ b/prime-gen/key_length_results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5feca511664c4791/Documentos/GitHub/Trabajo-de-Mampo-de-Matematicas/prime-gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F59887E5-09C7-4CF8-A915-17FBB2DD3B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:40009_{F59887E5-09C7-4CF8-A915-17FBB2DD3B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44FAC210-DF3E-4295-9EC5-FEE68886F597}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="key_length_results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -58,10 +71,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.00000000"/>
-    <numFmt numFmtId="170" formatCode="0.0000000E+00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -621,7 +633,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -646,8 +658,7 @@
     <xf numFmtId="11" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -761,7 +772,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>key_length_results!$K$1</c:f>
+              <c:f>key_length_results!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -839,10 +850,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>key_length_results!$I$2:$I$19</c:f>
+              <c:f>key_length_results!$L$2:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -899,10 +910,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>key_length_results!$K$2:$K$19</c:f>
+              <c:f>key_length_results!$N$2:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00000000</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>8.849999994708907E-6</c:v>
                 </c:pt>
@@ -1206,7 +1217,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>key_length_results!$L$1</c:f>
+              <c:f>key_length_results!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1284,10 +1295,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>key_length_results!$I$2:$I$19</c:f>
+              <c:f>key_length_results!$L$2:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -1344,10 +1355,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>key_length_results!$L$2:$L$19</c:f>
+              <c:f>key_length_results!$O$2:$O$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00000000</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>8.0599999364494464E-6</c:v>
                 </c:pt>
@@ -1651,7 +1662,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>key_length_results!$M$1</c:f>
+              <c:f>key_length_results!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1729,10 +1740,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>key_length_results!$I$2:$I$19</c:f>
+              <c:f>key_length_results!$L$2:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -1789,10 +1800,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>key_length_results!$M$2:$M$19</c:f>
+              <c:f>key_length_results!$P$2:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00000000</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.6909999931158352E-5</c:v>
                 </c:pt>
@@ -2096,7 +2107,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>key_length_results!$K$1</c:f>
+              <c:f>key_length_results!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2129,7 +2140,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>key_length_results!$I$2:$I$18</c:f>
+              <c:f>key_length_results!$L$2:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2189,7 +2200,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>key_length_results!$K$2:$K$18</c:f>
+              <c:f>key_length_results!$N$2:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2259,7 +2270,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>key_length_results!$L$1</c:f>
+              <c:f>key_length_results!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2292,7 +2303,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>key_length_results!$I$2:$I$18</c:f>
+              <c:f>key_length_results!$L$2:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2352,7 +2363,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>key_length_results!$L$2:$L$18</c:f>
+              <c:f>key_length_results!$O$2:$O$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2422,7 +2433,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>key_length_results!$M$1</c:f>
+              <c:f>key_length_results!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2455,7 +2466,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>key_length_results!$I$2:$I$18</c:f>
+              <c:f>key_length_results!$L$2:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2515,7 +2526,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>key_length_results!$M$2:$M$18</c:f>
+              <c:f>key_length_results!$P$2:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="17"/>
@@ -5026,16 +5037,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>902623</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>25632</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>602499</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>162272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>13854</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>25631</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>225138</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5062,16 +5073,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>928253</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>83128</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>589509</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>86937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>596437</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>83129</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>225137</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5100,16 +5111,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>41564</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>13854</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>578428</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>52300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>347057</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>13855</xdr:rowOff>
+      <xdr:colOff>279689</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>52302</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5138,16 +5149,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>519547</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>48492</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>134737</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>159328</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>90055</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>438324</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>59229</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5173,6 +5184,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5491,27 +5506,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P173"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P352"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I168" sqref="I168"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -5533,23 +5551,23 @@
       <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="O1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="P1" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>8</v>
       </c>
@@ -5568,26 +5586,41 @@
       <c r="F2" s="3">
         <v>1.4400000054592901E-5</v>
       </c>
-      <c r="I2" s="23">
-        <v>8</v>
-      </c>
-      <c r="J2" s="24">
+      <c r="G2">
         <f>AVERAGE(C2:C11)</f>
         <v>4.5550999998340543E-4</v>
       </c>
-      <c r="K2" s="24">
+      <c r="H2">
+        <f t="shared" ref="H2:J2" si="0">AVERAGE(D2:D11)</f>
+        <v>8.849999994708907E-6</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>8.0599999364494464E-6</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>1.6909999931158352E-5</v>
+      </c>
+      <c r="L2" s="23">
+        <v>8</v>
+      </c>
+      <c r="M2" s="24">
+        <f>AVERAGE(C2:C11)</f>
+        <v>4.5550999998340543E-4</v>
+      </c>
+      <c r="N2" s="24">
         <f>AVERAGE(D2:D11)</f>
         <v>8.849999994708907E-6</v>
       </c>
-      <c r="L2" s="24">
-        <f t="shared" ref="K2:M2" si="0">AVERAGE(E2:E11)</f>
+      <c r="O2" s="24">
+        <f>AVERAGE(E2:E11)</f>
         <v>8.0599999364494464E-6</v>
       </c>
-      <c r="M2" s="24">
+      <c r="P2" s="24">
         <f>AVERAGE(F2:F11)</f>
         <v>1.6909999931158352E-5</v>
       </c>
-      <c r="P2" s="25"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -5608,26 +5641,25 @@
       <c r="F3" s="3">
         <v>1.8500000351195898E-5</v>
       </c>
-      <c r="I3" s="23">
+      <c r="L3" s="23">
         <v>9</v>
       </c>
-      <c r="J3" s="24">
+      <c r="M3" s="24">
         <f>AVERAGE(C12:C21)</f>
         <v>3.8757999996050739E-4</v>
       </c>
-      <c r="K3" s="24">
+      <c r="N3" s="24">
         <f>AVERAGE(D12:D21)</f>
         <v>7.9200000072887613E-6</v>
       </c>
-      <c r="L3" s="24">
-        <f t="shared" ref="K3:M3" si="1">AVERAGE(E12:E21)</f>
+      <c r="O3" s="24">
+        <f>AVERAGE(E12:E21)</f>
         <v>7.249999953273796E-6</v>
       </c>
-      <c r="M3" s="24">
-        <f t="shared" si="1"/>
+      <c r="P3" s="24">
+        <f>AVERAGE(F12:F21)</f>
         <v>1.5169999960562512E-5</v>
       </c>
-      <c r="P3" s="25"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -5648,26 +5680,25 @@
       <c r="F4" s="3">
         <v>2.7200000204174999E-5</v>
       </c>
-      <c r="I4" s="23">
+      <c r="L4" s="23">
         <v>10</v>
       </c>
-      <c r="J4" s="24">
+      <c r="M4" s="24">
         <f>AVERAGE(C22:C31)</f>
         <v>3.7399999996523499E-4</v>
       </c>
-      <c r="K4" s="24">
-        <f t="shared" ref="K4:M4" si="2">AVERAGE(D22:D31)</f>
+      <c r="N4" s="24">
+        <f>AVERAGE(D22:D31)</f>
         <v>8.9299999672220959E-6</v>
       </c>
-      <c r="L4" s="24">
-        <f t="shared" si="2"/>
+      <c r="O4" s="24">
+        <f>AVERAGE(E22:E31)</f>
         <v>8.1800000316434277E-6</v>
       </c>
-      <c r="M4" s="24">
-        <f t="shared" si="2"/>
+      <c r="P4" s="24">
+        <f>AVERAGE(F22:F31)</f>
         <v>1.7109999998865478E-5</v>
       </c>
-      <c r="P4" s="25"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -5688,26 +5719,25 @@
       <c r="F5" s="3">
         <v>2.24999994316021E-5</v>
       </c>
-      <c r="I5" s="23">
+      <c r="L5" s="23">
         <v>11</v>
       </c>
-      <c r="J5" s="24">
+      <c r="M5" s="24">
         <f>AVERAGE(C32:C41)</f>
         <v>3.7505999998756976E-4</v>
       </c>
-      <c r="K5" s="24">
-        <f t="shared" ref="K5:M5" si="3">AVERAGE(D32:D41)</f>
+      <c r="N5" s="24">
+        <f>AVERAGE(D32:D41)</f>
         <v>1.224000002366661E-5</v>
       </c>
-      <c r="L5" s="24">
-        <f t="shared" si="3"/>
+      <c r="O5" s="24">
+        <f>AVERAGE(E32:E41)</f>
         <v>1.1109999968539289E-5</v>
       </c>
-      <c r="M5" s="24">
-        <f t="shared" si="3"/>
+      <c r="P5" s="24">
+        <f>AVERAGE(F32:F41)</f>
         <v>2.3349999992205954E-5</v>
       </c>
-      <c r="P5" s="25"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -5728,26 +5758,25 @@
       <c r="F6" s="3">
         <v>1.37000001814158E-5</v>
       </c>
-      <c r="I6" s="23">
+      <c r="L6" s="23">
         <v>12</v>
       </c>
-      <c r="J6" s="24">
+      <c r="M6" s="24">
         <f>AVERAGE(C42:C51)</f>
         <v>4.140900001857512E-4</v>
       </c>
-      <c r="K6" s="24">
-        <f t="shared" ref="K6:M6" si="4">AVERAGE(D42:D51)</f>
+      <c r="N6" s="24">
+        <f>AVERAGE(D42:D51)</f>
         <v>1.3149999949746361E-5</v>
       </c>
-      <c r="L6" s="24">
-        <f t="shared" si="4"/>
+      <c r="O6" s="24">
+        <f>AVERAGE(E42:E51)</f>
         <v>1.2199999991935293E-5</v>
       </c>
-      <c r="M6" s="24">
-        <f t="shared" si="4"/>
+      <c r="P6" s="24">
+        <f>AVERAGE(F42:F51)</f>
         <v>2.534999994168169E-5</v>
       </c>
-      <c r="P6" s="25"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -5768,26 +5797,25 @@
       <c r="F7" s="3">
         <v>1.5399999483633999E-5</v>
       </c>
-      <c r="I7" s="23">
+      <c r="L7" s="23">
         <v>13</v>
       </c>
-      <c r="J7" s="24">
+      <c r="M7" s="24">
         <f>AVERAGE(C52:C61)</f>
         <v>3.8308000007418702E-4</v>
       </c>
-      <c r="K7" s="24">
-        <f t="shared" ref="K7:M7" si="5">AVERAGE(D52:D61)</f>
+      <c r="N7" s="24">
+        <f>AVERAGE(D52:D61)</f>
         <v>1.3179999996282219E-5</v>
       </c>
-      <c r="L7" s="24">
-        <f t="shared" si="5"/>
+      <c r="O7" s="24">
+        <f>AVERAGE(E52:E61)</f>
         <v>1.2180000112493821E-5</v>
       </c>
-      <c r="M7" s="24">
-        <f t="shared" si="5"/>
+      <c r="P7" s="24">
+        <f>AVERAGE(F52:F61)</f>
         <v>2.5360000108776104E-5</v>
       </c>
-      <c r="P7" s="25"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -5809,26 +5837,25 @@
         <v>1.44999999065476E-5</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="23">
+      <c r="L8" s="23">
         <v>14</v>
       </c>
-      <c r="J8" s="24">
+      <c r="M8" s="24">
         <f>AVERAGE(C62:C71)</f>
         <v>4.1514999993523766E-4</v>
       </c>
-      <c r="K8" s="24">
-        <f t="shared" ref="K8:M8" si="6">AVERAGE(D62:D71)</f>
+      <c r="N8" s="24">
+        <f>AVERAGE(D62:D71)</f>
         <v>1.4349999946716659E-5</v>
       </c>
-      <c r="L8" s="24">
-        <f t="shared" si="6"/>
+      <c r="O8" s="24">
+        <f>AVERAGE(E62:E71)</f>
         <v>1.3050000097791731E-5</v>
       </c>
-      <c r="M8" s="24">
-        <f t="shared" si="6"/>
+      <c r="P8" s="24">
+        <f>AVERAGE(F62:F71)</f>
         <v>2.7400000044508429E-5</v>
       </c>
-      <c r="P8" s="25"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -5850,26 +5877,25 @@
         <v>1.5300000086426701E-5</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="23">
+      <c r="L9" s="23">
         <v>15</v>
       </c>
-      <c r="J9" s="24">
+      <c r="M9" s="24">
         <f>AVERAGE(C72:C81)</f>
         <v>4.026800000247018E-4</v>
       </c>
-      <c r="K9" s="24">
-        <f t="shared" ref="K9:M9" si="7">AVERAGE(D72:D81)</f>
+      <c r="N9" s="24">
+        <f>AVERAGE(D72:D81)</f>
         <v>1.8730000010691533E-5</v>
       </c>
-      <c r="L9" s="24">
-        <f t="shared" si="7"/>
+      <c r="O9" s="24">
+        <f>AVERAGE(E72:E81)</f>
         <v>1.7599999910089476E-5</v>
       </c>
-      <c r="M9" s="24">
-        <f t="shared" si="7"/>
+      <c r="P9" s="24">
+        <f>AVERAGE(F72:F81)</f>
         <v>3.6329999920781074E-5</v>
       </c>
-      <c r="P9" s="25"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -5891,26 +5917,25 @@
         <v>1.45999997585022E-5</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="23">
+      <c r="L10" s="23">
         <v>16</v>
       </c>
-      <c r="J10" s="24">
+      <c r="M10" s="24">
         <f>AVERAGE(C82:C91)</f>
         <v>4.3804000001728083E-4</v>
       </c>
-      <c r="K10" s="24">
-        <f t="shared" ref="K10:M10" si="8">AVERAGE(D82:D91)</f>
+      <c r="N10" s="24">
+        <f>AVERAGE(D82:D91)</f>
         <v>1.824000000851806E-5</v>
       </c>
-      <c r="L10" s="24">
-        <f t="shared" si="8"/>
+      <c r="O10" s="24">
+        <f>AVERAGE(E82:E91)</f>
         <v>1.7279999974562039E-5</v>
       </c>
-      <c r="M10" s="24">
-        <f t="shared" si="8"/>
+      <c r="P10" s="24">
+        <f>AVERAGE(F82:F91)</f>
         <v>3.5519999983080136E-5</v>
       </c>
-      <c r="P10" s="25"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -5932,26 +5957,25 @@
         <v>1.2999999853491301E-5</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="23">
+      <c r="L11" s="23">
         <v>17</v>
       </c>
-      <c r="J11" s="24">
+      <c r="M11" s="24">
         <f>AVERAGE(C92:C101)</f>
         <v>4.4870000001537785E-4</v>
       </c>
-      <c r="K11" s="24">
-        <f t="shared" ref="K11:M11" si="9">AVERAGE(D92:D101)</f>
+      <c r="N11" s="24">
+        <f>AVERAGE(D92:D101)</f>
         <v>1.8980000049850729E-5</v>
       </c>
-      <c r="L11" s="24">
-        <f t="shared" si="9"/>
+      <c r="O11" s="24">
+        <f>AVERAGE(E92:E101)</f>
         <v>1.8910000017058282E-5</v>
       </c>
-      <c r="M11" s="24">
-        <f t="shared" si="9"/>
+      <c r="P11" s="24">
+        <f>AVERAGE(F92:F101)</f>
         <v>3.7890000066909069E-5</v>
       </c>
-      <c r="P11" s="25"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -5972,27 +5996,41 @@
       <c r="F12" s="5">
         <v>1.6099999811558502E-5</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="23">
+      <c r="G12">
+        <f>AVERAGE(C12:C21)</f>
+        <v>3.8757999996050739E-4</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:H13" si="1">AVERAGE(D12:D21)</f>
+        <v>7.9200000072887613E-6</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:I13" si="2">AVERAGE(E12:E21)</f>
+        <v>7.249999953273796E-6</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J13" si="3">AVERAGE(F12:F21)</f>
+        <v>1.5169999960562512E-5</v>
+      </c>
+      <c r="L12" s="23">
         <v>18</v>
       </c>
-      <c r="J12" s="24">
+      <c r="M12" s="24">
         <f>AVERAGE(C102:C111)</f>
         <v>4.9627999997028352E-4</v>
       </c>
-      <c r="K12" s="24">
-        <f t="shared" ref="K12:M12" si="10">AVERAGE(D102:D111)</f>
+      <c r="N12" s="24">
+        <f>AVERAGE(D102:D111)</f>
         <v>2.2380000109478659E-5</v>
       </c>
-      <c r="L12" s="24">
-        <f t="shared" si="10"/>
+      <c r="O12" s="24">
+        <f>AVERAGE(E102:E111)</f>
         <v>2.1449999940159548E-5</v>
       </c>
-      <c r="M12" s="24">
-        <f t="shared" si="10"/>
+      <c r="P12" s="24">
+        <f>AVERAGE(F102:F111)</f>
         <v>4.3830000049638271E-5</v>
       </c>
-      <c r="P12" s="25"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -6014,26 +6052,25 @@
         <v>1.5399999938381299E-5</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="23">
+      <c r="L13" s="23">
         <v>19</v>
       </c>
-      <c r="J13" s="24">
+      <c r="M13" s="24">
         <f>AVERAGE(C112:C121)</f>
         <v>4.4274000006225782E-4</v>
       </c>
-      <c r="K13" s="24">
-        <f t="shared" ref="K13:M13" si="11">AVERAGE(D112:D121)</f>
+      <c r="N13" s="24">
+        <f>AVERAGE(D112:D121)</f>
         <v>2.6439999965077683E-5</v>
       </c>
-      <c r="L13" s="24">
-        <f t="shared" si="11"/>
+      <c r="O13" s="24">
+        <f>AVERAGE(E112:E121)</f>
         <v>2.5749999986146528E-5</v>
       </c>
-      <c r="M13" s="24">
-        <f t="shared" si="11"/>
+      <c r="P13" s="24">
+        <f>AVERAGE(F112:F121)</f>
         <v>5.2189999951224279E-5</v>
       </c>
-      <c r="P13" s="25"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -6055,26 +6092,25 @@
         <v>1.50000000758154E-5</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="23">
+      <c r="L14" s="23">
         <v>20</v>
       </c>
-      <c r="J14" s="24">
+      <c r="M14" s="24">
         <f>AVERAGE(C122:C131)</f>
         <v>4.1298999994978622E-4</v>
       </c>
-      <c r="K14" s="24">
-        <f t="shared" ref="K14:M14" si="12">AVERAGE(D122:D131)</f>
+      <c r="N14" s="24">
+        <f>AVERAGE(D122:D131)</f>
         <v>2.6799999977811197E-5</v>
       </c>
-      <c r="L14" s="24">
-        <f t="shared" si="12"/>
+      <c r="O14" s="24">
+        <f>AVERAGE(E122:E131)</f>
         <v>2.6459999980943355E-5</v>
       </c>
-      <c r="M14" s="24">
-        <f t="shared" si="12"/>
+      <c r="P14" s="24">
+        <f>AVERAGE(F122:F131)</f>
         <v>5.32599999587546E-5</v>
       </c>
-      <c r="P14" s="25"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
@@ -6096,26 +6132,25 @@
         <v>1.4000000192027001E-5</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="23">
+      <c r="L15" s="23">
         <v>21</v>
       </c>
-      <c r="J15" s="24">
+      <c r="M15" s="24">
         <f>AVERAGE(C132:C141)</f>
         <v>5.6946999998217472E-4</v>
       </c>
-      <c r="K15" s="24">
-        <f t="shared" ref="K15:M15" si="13">AVERAGE(D132:D141)</f>
+      <c r="N15" s="24">
+        <f>AVERAGE(D132:D141)</f>
         <v>3.7639999982275123E-5</v>
       </c>
-      <c r="L15" s="24">
-        <f t="shared" si="13"/>
+      <c r="O15" s="24">
+        <f>AVERAGE(E132:E141)</f>
         <v>3.7169999995967308E-5</v>
       </c>
-      <c r="M15" s="24">
-        <f t="shared" si="13"/>
+      <c r="P15" s="24">
+        <f>AVERAGE(F132:F141)</f>
         <v>7.4809999978242526E-5</v>
       </c>
-      <c r="P15" s="25"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
@@ -6137,26 +6172,25 @@
         <v>1.45000003612949E-5</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="23">
+      <c r="L16" s="23">
         <v>22</v>
       </c>
-      <c r="J16" s="24">
+      <c r="M16" s="24">
         <f>AVERAGE(C142:C151)</f>
         <v>5.4295999989335505E-4</v>
       </c>
-      <c r="K16" s="24">
-        <f t="shared" ref="K16:M16" si="14">AVERAGE(D142:D151)</f>
+      <c r="N16" s="24">
+        <f>AVERAGE(D142:D151)</f>
         <v>4.6100000099613638E-5</v>
       </c>
-      <c r="L16" s="24">
-        <f t="shared" si="14"/>
+      <c r="O16" s="24">
+        <f>AVERAGE(E142:E151)</f>
         <v>4.4309999930192072E-5</v>
       </c>
-      <c r="M16" s="24">
-        <f t="shared" si="14"/>
+      <c r="P16" s="24">
+        <f>AVERAGE(F142:F151)</f>
         <v>9.0410000029805622E-5</v>
       </c>
-      <c r="P16" s="25"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
@@ -6178,26 +6212,25 @@
         <v>1.4799999917158799E-5</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="23">
+      <c r="L17" s="23">
         <v>23</v>
       </c>
-      <c r="J17" s="24">
+      <c r="M17" s="24">
         <f>AVERAGE(C162:C171)</f>
         <v>5.9283999999024616E-4</v>
       </c>
-      <c r="K17" s="24">
-        <f t="shared" ref="K17:M17" si="15">AVERAGE(D162:D171)</f>
+      <c r="N17" s="24">
+        <f>AVERAGE(D162:D171)</f>
         <v>4.7739999945406396E-5</v>
       </c>
-      <c r="L17" s="24">
-        <f t="shared" si="15"/>
+      <c r="O17" s="24">
+        <f>AVERAGE(E162:E171)</f>
         <v>5.3400000069814214E-5</v>
       </c>
-      <c r="M17" s="24">
-        <f t="shared" si="15"/>
+      <c r="P17" s="24">
+        <f>AVERAGE(F162:F171)</f>
         <v>1.0114000001522053E-4</v>
       </c>
-      <c r="P17" s="25"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
@@ -6219,26 +6252,25 @@
         <v>1.51999997797247E-5</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="23">
+      <c r="L18" s="23">
         <v>24</v>
       </c>
-      <c r="J18" s="24">
+      <c r="M18" s="24">
         <f>AVERAGE(C162:C171)</f>
         <v>5.9283999999024616E-4</v>
       </c>
-      <c r="K18" s="24">
-        <f t="shared" ref="K18:M18" si="16">AVERAGE(D162:D171)</f>
+      <c r="N18" s="24">
+        <f>AVERAGE(D162:D171)</f>
         <v>4.7739999945406396E-5</v>
       </c>
-      <c r="L18" s="24">
-        <f t="shared" si="16"/>
+      <c r="O18" s="24">
+        <f>AVERAGE(E162:E171)</f>
         <v>5.3400000069814214E-5</v>
       </c>
-      <c r="M18" s="24">
-        <f t="shared" si="16"/>
+      <c r="P18" s="24">
+        <f>AVERAGE(F162:F171)</f>
         <v>1.0114000001522053E-4</v>
       </c>
-      <c r="P18" s="25"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
@@ -6260,12 +6292,25 @@
         <v>1.6299999970215099E-5</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="P19" s="25"/>
+      <c r="L19" s="23">
+        <v>25</v>
+      </c>
+      <c r="M19" s="24" t="e">
+        <f>G172</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="24" t="e">
+        <f t="shared" ref="N19:P19" si="4">H172</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" s="24" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P19" s="24" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -6286,6 +6331,25 @@
       <c r="F20" s="5">
         <v>1.45999997585022E-5</v>
       </c>
+      <c r="L20" s="23">
+        <v>26</v>
+      </c>
+      <c r="M20" s="24" t="e">
+        <f>G182</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" s="24" t="e">
+        <f t="shared" ref="N20:P20" si="5">H182</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O20" s="24" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P20" s="24" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -6306,6 +6370,25 @@
       <c r="F21" s="5">
         <v>1.5799999800947201E-5</v>
       </c>
+      <c r="L21" s="23">
+        <v>27</v>
+      </c>
+      <c r="M21" s="24" t="e">
+        <f>G192</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" s="24" t="e">
+        <f t="shared" ref="N21:P21" si="6">H192</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O21" s="24" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P21" s="24" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
@@ -6326,6 +6409,41 @@
       <c r="F22" s="7">
         <v>1.7800000023271399E-5</v>
       </c>
+      <c r="G22">
+        <f>AVERAGE(C22:C31)</f>
+        <v>3.7399999996523499E-4</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22" si="7">AVERAGE(D22:D31)</f>
+        <v>8.9299999672220959E-6</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22" si="8">AVERAGE(E22:E31)</f>
+        <v>8.1800000316434277E-6</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22" si="9">AVERAGE(F22:F31)</f>
+        <v>1.7109999998865478E-5</v>
+      </c>
+      <c r="L22" s="23">
+        <v>28</v>
+      </c>
+      <c r="M22" s="24" t="e">
+        <f>G202</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" s="24" t="e">
+        <f t="shared" ref="N22:P22" si="10">H202</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O22" s="24" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P22" s="24" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
@@ -6346,6 +6464,25 @@
       <c r="F23" s="7">
         <v>1.6299999970215099E-5</v>
       </c>
+      <c r="L23" s="23">
+        <v>29</v>
+      </c>
+      <c r="M23" s="24" t="e">
+        <f>G212</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N23" s="24" t="e">
+        <f t="shared" ref="N23:P23" si="11">H212</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O23" s="24" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P23" s="24" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
@@ -6366,6 +6503,25 @@
       <c r="F24" s="7">
         <v>1.7400000615452801E-5</v>
       </c>
+      <c r="L24" s="23">
+        <v>30</v>
+      </c>
+      <c r="M24" s="24" t="e">
+        <f>G222</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" s="24" t="e">
+        <f t="shared" ref="N24:P24" si="12">H222</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O24" s="24" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P24" s="24" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
@@ -6386,6 +6542,25 @@
       <c r="F25" s="7">
         <v>1.7400000160705501E-5</v>
       </c>
+      <c r="L25" s="23">
+        <v>31</v>
+      </c>
+      <c r="M25" s="24" t="e">
+        <f>G232</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="24" t="e">
+        <f t="shared" ref="N25:P25" si="13">H232</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="24" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25" s="24" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
@@ -6406,6 +6581,25 @@
       <c r="F26" s="7">
         <v>1.7500000012660098E-5</v>
       </c>
+      <c r="L26" s="23">
+        <v>32</v>
+      </c>
+      <c r="M26" s="24" t="e">
+        <f>G242</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="24" t="e">
+        <f t="shared" ref="N26:P26" si="14">H242</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O26" s="24" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P26" s="24" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
@@ -6426,6 +6620,25 @@
       <c r="F27" s="7">
         <v>1.6400000276917099E-5</v>
       </c>
+      <c r="L27" s="23">
+        <v>33</v>
+      </c>
+      <c r="M27" s="24" t="e">
+        <f>G252</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="24" t="e">
+        <f t="shared" ref="N27:P27" si="15">H252</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27" s="24" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P27" s="24" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
@@ -6446,6 +6659,26 @@
       <c r="F28" s="7">
         <v>1.6399999822169701E-5</v>
       </c>
+      <c r="H28" s="1"/>
+      <c r="L28" s="23">
+        <v>34</v>
+      </c>
+      <c r="M28" s="24" t="e">
+        <f>G262</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="24" t="e">
+        <f t="shared" ref="N28:P28" si="16">H262</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" s="24" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P28" s="24" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
@@ -6466,6 +6699,26 @@
       <c r="F29" s="7">
         <v>1.6599999526079002E-5</v>
       </c>
+      <c r="H29" s="1"/>
+      <c r="L29" s="23">
+        <v>35</v>
+      </c>
+      <c r="M29" s="24" t="e">
+        <f>G272</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="24" t="e">
+        <f t="shared" ref="N29:P29" si="17">H272</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O29" s="24" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P29" s="24" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
@@ -6486,6 +6739,26 @@
       <c r="F30" s="7">
         <v>1.7799999568524001E-5</v>
       </c>
+      <c r="H30" s="1"/>
+      <c r="L30" s="23">
+        <v>36</v>
+      </c>
+      <c r="M30" s="24" t="e">
+        <f>G282</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N30" s="24" t="e">
+        <f t="shared" ref="N30:P30" si="18">H282</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O30" s="24" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P30" s="24" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
@@ -6506,6 +6779,26 @@
       <c r="F31" s="7">
         <v>1.7500000012660098E-5</v>
       </c>
+      <c r="H31" s="1"/>
+      <c r="L31" s="23">
+        <v>37</v>
+      </c>
+      <c r="M31" s="24" t="e">
+        <f>G292</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N31" s="24" t="e">
+        <f t="shared" ref="N31:P31" si="19">H292</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O31" s="24" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P31" s="24" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
@@ -6526,8 +6819,43 @@
       <c r="F32" s="9">
         <v>2.6899999738816401E-5</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <f>AVERAGE(C32:C41)</f>
+        <v>3.7505999998756976E-4</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ref="H32" si="20">AVERAGE(D32:D41)</f>
+        <v>1.224000002366661E-5</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ref="I32" si="21">AVERAGE(E32:E41)</f>
+        <v>1.1109999968539289E-5</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ref="J32" si="22">AVERAGE(F32:F41)</f>
+        <v>2.3349999992205954E-5</v>
+      </c>
+      <c r="L32" s="23">
+        <v>38</v>
+      </c>
+      <c r="M32" s="24" t="e">
+        <f>G302</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N32" s="24" t="e">
+        <f t="shared" ref="N32:P32" si="23">H302</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O32" s="24" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P32" s="24" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>11</v>
       </c>
@@ -6547,7 +6875,7 @@
         <v>2.3699999928794501E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>11</v>
       </c>
@@ -6567,7 +6895,7 @@
         <v>2.3300000066228599E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>11</v>
       </c>
@@ -6587,7 +6915,7 @@
         <v>2.2199999875738201E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>11</v>
       </c>
@@ -6607,7 +6935,7 @@
         <v>2.3600000076839899E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>11</v>
       </c>
@@ -6627,7 +6955,7 @@
         <v>2.10000002880406E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>11</v>
       </c>
@@ -6647,7 +6975,7 @@
         <v>2.3600000076839899E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>11</v>
       </c>
@@ -6667,7 +6995,7 @@
         <v>2.2700000045006099E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>11</v>
       </c>
@@ -6687,7 +7015,7 @@
         <v>2.4599999960628301E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>11</v>
       </c>
@@ -6707,7 +7035,7 @@
         <v>2.1899999865126998E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>12</v>
       </c>
@@ -6726,8 +7054,24 @@
       <c r="F42" s="11">
         <v>4.1199999941454701E-5</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42">
+        <f>AVERAGE(C42:C51)</f>
+        <v>4.140900001857512E-4</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ref="H42" si="24">AVERAGE(D42:D51)</f>
+        <v>1.3149999949746361E-5</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ref="I42" si="25">AVERAGE(E42:E51)</f>
+        <v>1.2199999991935293E-5</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ref="J42" si="26">AVERAGE(F42:F51)</f>
+        <v>2.534999994168169E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>12</v>
       </c>
@@ -6747,7 +7091,7 @@
         <v>2.2199999875738201E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>12</v>
       </c>
@@ -6767,7 +7111,7 @@
         <v>2.2500000341096801E-5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>12</v>
       </c>
@@ -6787,7 +7131,7 @@
         <v>2.43999998019717E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>12</v>
       </c>
@@ -6807,7 +7151,7 @@
         <v>2.3999999939405801E-5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>12</v>
       </c>
@@ -6827,7 +7171,7 @@
         <v>2.4400000256719E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>12</v>
       </c>
@@ -6846,8 +7190,9 @@
       <c r="F48" s="11">
         <v>2.3399999918183302E-5</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>12</v>
       </c>
@@ -6866,8 +7211,9 @@
       <c r="F49" s="11">
         <v>2.3899999632703802E-5</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>12</v>
       </c>
@@ -6886,8 +7232,9 @@
       <c r="F50" s="11">
         <v>2.4299999950017E-5</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>12</v>
       </c>
@@ -6906,8 +7253,9 @@
       <c r="F51" s="11">
         <v>2.3199999759526599E-5</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>13</v>
       </c>
@@ -6926,8 +7274,24 @@
       <c r="F52" s="13">
         <v>2.3299999611481299E-5</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52">
+        <f>AVERAGE(C52:C61)</f>
+        <v>3.8308000007418702E-4</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ref="H52:H53" si="27">AVERAGE(D52:D61)</f>
+        <v>1.3179999996282219E-5</v>
+      </c>
+      <c r="I52">
+        <f t="shared" ref="I52:I53" si="28">AVERAGE(E52:E61)</f>
+        <v>1.2180000112493821E-5</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ref="J52:J53" si="29">AVERAGE(F52:F61)</f>
+        <v>2.5360000108776104E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <v>13</v>
       </c>
@@ -6947,7 +7311,7 @@
         <v>2.67000000349071E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <v>13</v>
       </c>
@@ -6967,7 +7331,7 @@
         <v>2.3300000066228599E-5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <v>13</v>
       </c>
@@ -6987,7 +7351,7 @@
         <v>2.6499999876250499E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <v>13</v>
       </c>
@@ -7007,7 +7371,7 @@
         <v>2.4100000246107801E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="12">
         <v>13</v>
       </c>
@@ -7027,7 +7391,7 @@
         <v>2.5600000299163999E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
         <v>13</v>
       </c>
@@ -7047,7 +7411,7 @@
         <v>2.6300000172341198E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="12">
         <v>13</v>
       </c>
@@ -7067,7 +7431,7 @@
         <v>2.68000003416091E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
         <v>13</v>
       </c>
@@ -7087,7 +7451,7 @@
         <v>2.5499999992462101E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <v>13</v>
       </c>
@@ -7107,7 +7471,7 @@
         <v>2.5500000447209401E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="14">
         <v>14</v>
       </c>
@@ -7126,8 +7490,24 @@
       <c r="F62" s="15">
         <v>2.58000000030733E-5</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62">
+        <f>AVERAGE(C62:C71)</f>
+        <v>4.1514999993523766E-4</v>
+      </c>
+      <c r="H62">
+        <f t="shared" ref="H62" si="30">AVERAGE(D62:D71)</f>
+        <v>1.4349999946716659E-5</v>
+      </c>
+      <c r="I62">
+        <f t="shared" ref="I62" si="31">AVERAGE(E62:E71)</f>
+        <v>1.3050000097791731E-5</v>
+      </c>
+      <c r="J62">
+        <f t="shared" ref="J62" si="32">AVERAGE(F62:F71)</f>
+        <v>2.7400000044508429E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
         <v>14</v>
       </c>
@@ -7147,7 +7527,7 @@
         <v>2.8599999950529299E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="14">
         <v>14</v>
       </c>
@@ -7167,7 +7547,7 @@
         <v>2.7699999918695499E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>14</v>
       </c>
@@ -7187,7 +7567,7 @@
         <v>2.7200000658922299E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="14">
         <v>14</v>
       </c>
@@ -7207,7 +7587,7 @@
         <v>2.8100000236008701E-5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>14</v>
       </c>
@@ -7227,7 +7607,7 @@
         <v>2.7699999918695499E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="14">
         <v>14</v>
       </c>
@@ -7246,8 +7626,9 @@
       <c r="F68" s="15">
         <v>2.7000000045518299E-5</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>14</v>
       </c>
@@ -7266,8 +7647,9 @@
       <c r="F69" s="15">
         <v>2.71999997494276E-5</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="14">
         <v>14</v>
       </c>
@@ -7286,8 +7668,9 @@
       <c r="F70" s="15">
         <v>2.7399999908084201E-5</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="14">
         <v>14</v>
       </c>
@@ -7306,8 +7689,9 @@
       <c r="F71" s="15">
         <v>2.73000000561296E-5</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>15</v>
       </c>
@@ -7326,8 +7710,24 @@
       <c r="F72" s="17">
         <v>3.7100000099599101E-5</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72">
+        <f>AVERAGE(C72:C81)</f>
+        <v>4.026800000247018E-4</v>
+      </c>
+      <c r="H72">
+        <f t="shared" ref="H72" si="33">AVERAGE(D72:D81)</f>
+        <v>1.8730000010691533E-5</v>
+      </c>
+      <c r="I72">
+        <f t="shared" ref="I72" si="34">AVERAGE(E72:E81)</f>
+        <v>1.7599999910089476E-5</v>
+      </c>
+      <c r="J72">
+        <f t="shared" ref="J72" si="35">AVERAGE(F72:F81)</f>
+        <v>3.6329999920781074E-5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
         <v>15</v>
       </c>
@@ -7346,8 +7746,9 @@
       <c r="F73" s="17">
         <v>3.6599999930331203E-5</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="16">
         <v>15</v>
       </c>
@@ -7366,8 +7767,9 @@
       <c r="F74" s="17">
         <v>3.6099999761063298E-5</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="16">
         <v>15</v>
       </c>
@@ -7386,8 +7788,9 @@
       <c r="F75" s="17">
         <v>3.6799999634240501E-5</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="16">
         <v>15</v>
       </c>
@@ -7406,8 +7809,9 @@
       <c r="F76" s="17">
         <v>3.6999999792897102E-5</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="16">
         <v>15</v>
       </c>
@@ -7426,8 +7830,9 @@
       <c r="F77" s="17">
         <v>3.5800000205199399E-5</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="16">
         <v>15</v>
       </c>
@@ -7446,8 +7851,9 @@
       <c r="F78" s="17">
         <v>3.6599999930331203E-5</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="16">
         <v>15</v>
       </c>
@@ -7466,8 +7872,9 @@
       <c r="F79" s="17">
         <v>3.6099999761063298E-5</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="16">
         <v>15</v>
       </c>
@@ -7487,7 +7894,7 @@
         <v>3.5999999909108697E-5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="16">
         <v>15</v>
       </c>
@@ -7507,7 +7914,7 @@
         <v>3.52000001839769E-5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="18">
         <v>16</v>
       </c>
@@ -7526,8 +7933,24 @@
       <c r="F82" s="19">
         <v>3.50999998772749E-5</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82">
+        <f>AVERAGE(C82:C91)</f>
+        <v>4.3804000001728083E-4</v>
+      </c>
+      <c r="H82">
+        <f t="shared" ref="H82" si="36">AVERAGE(D82:D91)</f>
+        <v>1.824000000851806E-5</v>
+      </c>
+      <c r="I82">
+        <f t="shared" ref="I82" si="37">AVERAGE(E82:E91)</f>
+        <v>1.7279999974562039E-5</v>
+      </c>
+      <c r="J82">
+        <f t="shared" ref="J82" si="38">AVERAGE(F82:F91)</f>
+        <v>3.5519999983080136E-5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="18">
         <v>16</v>
       </c>
@@ -7547,7 +7970,7 @@
         <v>3.6299999919719899E-5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="18">
         <v>16</v>
       </c>
@@ -7567,7 +7990,7 @@
         <v>3.4599999708007002E-5</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="18">
         <v>16</v>
       </c>
@@ -7587,7 +8010,7 @@
         <v>3.5900000511901399E-5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="18">
         <v>16</v>
       </c>
@@ -7607,7 +8030,7 @@
         <v>3.56999998984974E-5</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="18">
         <v>16</v>
       </c>
@@ -7627,7 +8050,7 @@
         <v>3.6500000078376602E-5</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="18">
         <v>16</v>
       </c>
@@ -7646,8 +8069,9 @@
       <c r="F88" s="19">
         <v>3.5999999909108697E-5</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="18">
         <v>16</v>
       </c>
@@ -7666,8 +8090,9 @@
       <c r="F89" s="19">
         <v>3.46000001627544E-5</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="18">
         <v>16</v>
       </c>
@@ -7686,8 +8111,9 @@
       <c r="F90" s="19">
         <v>3.5000000025320299E-5</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="18">
         <v>16</v>
       </c>
@@ -7706,8 +8132,9 @@
       <c r="F91" s="19">
         <v>3.5499999739840799E-5</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>17</v>
       </c>
@@ -7726,8 +8153,24 @@
       <c r="F92" s="3">
         <v>3.6700000237033203E-5</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92">
+        <f>AVERAGE(C92:C101)</f>
+        <v>4.4870000001537785E-4</v>
+      </c>
+      <c r="H92">
+        <f t="shared" ref="H92" si="39">AVERAGE(D92:D101)</f>
+        <v>1.8980000049850729E-5</v>
+      </c>
+      <c r="I92">
+        <f t="shared" ref="I92" si="40">AVERAGE(E92:E101)</f>
+        <v>1.8910000017058282E-5</v>
+      </c>
+      <c r="J92">
+        <f t="shared" ref="J92" si="41">AVERAGE(F92:F101)</f>
+        <v>3.7890000066909069E-5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>17</v>
       </c>
@@ -7747,7 +8190,7 @@
         <v>3.6699999782285798E-5</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>17</v>
       </c>
@@ -7767,7 +8210,7 @@
         <v>3.6599999930331203E-5</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>17</v>
       </c>
@@ -7787,7 +8230,7 @@
         <v>4.7200000153679799E-5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>17</v>
       </c>
@@ -7807,7 +8250,7 @@
         <v>3.7700000120821601E-5</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>17</v>
       </c>
@@ -7827,7 +8270,7 @@
         <v>3.6800000088987797E-5</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>17</v>
       </c>
@@ -7847,7 +8290,7 @@
         <v>3.6800000088987797E-5</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>17</v>
       </c>
@@ -7867,7 +8310,7 @@
         <v>3.6999999792897102E-5</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>17</v>
       </c>
@@ -7887,7 +8330,7 @@
         <v>3.7200000406301101E-5</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>17</v>
       </c>
@@ -7907,7 +8350,7 @@
         <v>3.6200000067765298E-5</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>18</v>
       </c>
@@ -7926,8 +8369,24 @@
       <c r="F102" s="5">
         <v>4.1299999793409302E-5</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102">
+        <f>AVERAGE(C102:C111)</f>
+        <v>4.9627999997028352E-4</v>
+      </c>
+      <c r="H102">
+        <f t="shared" ref="H102" si="42">AVERAGE(D102:D111)</f>
+        <v>2.2380000109478659E-5</v>
+      </c>
+      <c r="I102">
+        <f t="shared" ref="I102" si="43">AVERAGE(E102:E111)</f>
+        <v>2.1449999940159548E-5</v>
+      </c>
+      <c r="J102">
+        <f t="shared" ref="J102" si="44">AVERAGE(F102:F111)</f>
+        <v>4.3830000049638271E-5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>18</v>
       </c>
@@ -7947,7 +8406,7 @@
         <v>3.9800000195100397E-5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>18</v>
       </c>
@@ -7967,7 +8426,7 @@
         <v>6.9400000029418098E-5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>18</v>
       </c>
@@ -7987,7 +8446,7 @@
         <v>4.1499999952065903E-5</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>18</v>
       </c>
@@ -8007,7 +8466,7 @@
         <v>4.1299999793409302E-5</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>18</v>
       </c>
@@ -8027,7 +8486,7 @@
         <v>4.13000002481567E-5</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>18</v>
       </c>
@@ -8046,8 +8505,9 @@
       <c r="F108" s="5">
         <v>4.1499999952065903E-5</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>18</v>
       </c>
@@ -8066,8 +8526,9 @@
       <c r="F109" s="5">
         <v>4.0600000374979498E-5</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H109" s="1"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>18</v>
       </c>
@@ -8086,8 +8547,9 @@
       <c r="F110" s="5">
         <v>4.1100000089500099E-5</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H110" s="1"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>18</v>
       </c>
@@ -8106,8 +8568,9 @@
       <c r="F111" s="5">
         <v>4.0500000068277498E-5</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H111" s="1"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>19</v>
       </c>
@@ -8126,8 +8589,24 @@
       <c r="F112" s="7">
         <v>4.7099999846977799E-5</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112">
+        <f>AVERAGE(C112:C121)</f>
+        <v>4.4274000006225782E-4</v>
+      </c>
+      <c r="H112">
+        <f t="shared" ref="H112" si="45">AVERAGE(D112:D121)</f>
+        <v>2.6439999965077683E-5</v>
+      </c>
+      <c r="I112">
+        <f t="shared" ref="I112" si="46">AVERAGE(E112:E121)</f>
+        <v>2.5749999986146528E-5</v>
+      </c>
+      <c r="J112">
+        <f t="shared" ref="J112" si="47">AVERAGE(F112:F121)</f>
+        <v>5.2189999951224279E-5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>19</v>
       </c>
@@ -8147,7 +8626,7 @@
         <v>4.6900000143068603E-5</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>19</v>
       </c>
@@ -8167,7 +8646,7 @@
         <v>7.1800000114308205E-5</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>19</v>
       </c>
@@ -8187,7 +8666,7 @@
         <v>7.5299999934941297E-5</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>19</v>
       </c>
@@ -8207,7 +8686,7 @@
         <v>4.7800000174902298E-5</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>19</v>
       </c>
@@ -8227,7 +8706,7 @@
         <v>4.75999995614984E-5</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>19</v>
       </c>
@@ -8247,7 +8726,7 @@
         <v>4.66999999844119E-5</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>19</v>
       </c>
@@ -8267,7 +8746,7 @@
         <v>4.6500000280502698E-5</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>19</v>
       </c>
@@ -8287,7 +8766,7 @@
         <v>4.7499999709543698E-5</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>19</v>
       </c>
@@ -8307,7 +8786,7 @@
         <v>4.46999997620878E-5</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <v>20</v>
       </c>
@@ -8326,8 +8805,24 @@
       <c r="F122" s="9">
         <v>5.4199999794945998E-5</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122">
+        <f>AVERAGE(C122:C131)</f>
+        <v>4.1298999994978622E-4</v>
+      </c>
+      <c r="H122">
+        <f t="shared" ref="H122" si="48">AVERAGE(D122:D131)</f>
+        <v>2.6799999977811197E-5</v>
+      </c>
+      <c r="I122">
+        <f t="shared" ref="I122" si="49">AVERAGE(E122:E131)</f>
+        <v>2.6459999980943355E-5</v>
+      </c>
+      <c r="J122">
+        <f t="shared" ref="J122" si="50">AVERAGE(F122:F131)</f>
+        <v>5.32599999587546E-5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
         <v>20</v>
       </c>
@@ -8347,7 +8842,7 @@
         <v>5.3599999773723498E-5</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>20</v>
       </c>
@@ -8367,7 +8862,7 @@
         <v>5.27000001966371E-5</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <v>20</v>
       </c>
@@ -8387,7 +8882,7 @@
         <v>5.4099999942991403E-5</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <v>20</v>
       </c>
@@ -8407,7 +8902,7 @@
         <v>5.25999998899351E-5</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
         <v>20</v>
       </c>
@@ -8427,7 +8922,7 @@
         <v>5.2500000037980499E-5</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <v>20</v>
       </c>
@@ -8446,8 +8941,9 @@
       <c r="F128" s="9">
         <v>5.3400000069814201E-5</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H128" s="1"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
         <v>20</v>
       </c>
@@ -8466,8 +8962,9 @@
       <c r="F129" s="9">
         <v>5.2699999741889701E-5</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H129" s="1"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <v>20</v>
       </c>
@@ -8486,8 +8983,9 @@
       <c r="F130" s="9">
         <v>5.3100000059202998E-5</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H130" s="1"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
         <v>20</v>
       </c>
@@ -8506,8 +9004,9 @@
       <c r="F131" s="9">
         <v>5.3700000080425498E-5</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H131" s="1"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="20">
         <v>21</v>
       </c>
@@ -8526,8 +9025,24 @@
       <c r="F132" s="21">
         <v>9.5900000360416002E-5</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132">
+        <f>AVERAGE(C132:C141)</f>
+        <v>5.6946999998217472E-4</v>
+      </c>
+      <c r="H132">
+        <f t="shared" ref="H132" si="51">AVERAGE(D132:D141)</f>
+        <v>3.7639999982275123E-5</v>
+      </c>
+      <c r="I132">
+        <f t="shared" ref="I132" si="52">AVERAGE(E132:E141)</f>
+        <v>3.7169999995967308E-5</v>
+      </c>
+      <c r="J132">
+        <f t="shared" ref="J132" si="53">AVERAGE(F132:F141)</f>
+        <v>7.4809999978242526E-5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="20">
         <v>21</v>
       </c>
@@ -8546,8 +9061,9 @@
       <c r="F133" s="21">
         <v>5.6599999879836098E-5</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H133" s="1"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="20">
         <v>21</v>
       </c>
@@ -8566,8 +9082,9 @@
       <c r="F134" s="21">
         <v>5.6200000017270199E-5</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H134" s="1"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="20">
         <v>21</v>
       </c>
@@ -8586,8 +9103,9 @@
       <c r="F135" s="21">
         <v>9.6699999630800394E-5</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H135" s="1"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="20">
         <v>21</v>
       </c>
@@ -8606,8 +9124,9 @@
       <c r="F136" s="21">
         <v>5.7100000049103901E-5</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H136" s="1"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="20">
         <v>21</v>
       </c>
@@ -8626,8 +9145,9 @@
       <c r="F137" s="21">
         <v>5.7199999901058598E-5</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H137" s="1"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="20">
         <v>21</v>
       </c>
@@ -8646,8 +9166,9 @@
       <c r="F138" s="21">
         <v>5.5699999848002301E-5</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H138" s="1"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="20">
         <v>21</v>
       </c>
@@ -8666,8 +9187,9 @@
       <c r="F139" s="21">
         <v>9.4499999704567003E-5</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H139" s="1"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="20">
         <v>21</v>
       </c>
@@ -8687,7 +9209,7 @@
         <v>8.8600000253791195E-5</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="20">
         <v>21</v>
       </c>
@@ -8707,7 +9229,7 @@
         <v>8.96000001375796E-5</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="12">
         <v>22</v>
       </c>
@@ -8726,8 +9248,24 @@
       <c r="F142" s="13">
         <v>9.9700000191660297E-5</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G142">
+        <f>AVERAGE(C142:C151)</f>
+        <v>5.4295999989335505E-4</v>
+      </c>
+      <c r="H142">
+        <f t="shared" ref="H142" si="54">AVERAGE(D142:D151)</f>
+        <v>4.6100000099613638E-5</v>
+      </c>
+      <c r="I142">
+        <f t="shared" ref="I142" si="55">AVERAGE(E142:E151)</f>
+        <v>4.4309999930192072E-5</v>
+      </c>
+      <c r="J142">
+        <f t="shared" ref="J142" si="56">AVERAGE(F142:F151)</f>
+        <v>9.0410000029805622E-5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="12">
         <v>22</v>
       </c>
@@ -8747,7 +9285,7 @@
         <v>9.6400000074936502E-5</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="12">
         <v>22</v>
       </c>
@@ -8767,7 +9305,7 @@
         <v>1.00599999768746E-4</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="12">
         <v>22</v>
       </c>
@@ -8787,7 +9325,7 @@
         <v>9.6600000233593096E-5</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="12">
         <v>22</v>
       </c>
@@ -8807,7 +9345,7 @@
         <v>9.8699999853124596E-5</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="12">
         <v>22</v>
       </c>
@@ -8827,7 +9365,7 @@
         <v>1.01900000117893E-4</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="12">
         <v>22</v>
       </c>
@@ -8846,8 +9384,9 @@
       <c r="F148" s="13">
         <v>9.6600000233593096E-5</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H148" s="1"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="12">
         <v>22</v>
       </c>
@@ -8866,8 +9405,9 @@
       <c r="F149" s="13">
         <v>6.48000000182946E-5</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H149" s="1"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="12">
         <v>22</v>
       </c>
@@ -8886,8 +9426,9 @@
       <c r="F150" s="13">
         <v>6.41999999970721E-5</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H150" s="1"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="12">
         <v>22</v>
       </c>
@@ -8906,8 +9447,9 @@
       <c r="F151" s="13">
         <v>8.4599999809142901E-5</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H151" s="1"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="14">
         <v>23</v>
       </c>
@@ -8926,8 +9468,24 @@
       <c r="F152" s="15">
         <v>7.4699999913718703E-5</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G152">
+        <f>AVERAGE(C152:C161)</f>
+        <v>5.3895999999440346E-4</v>
+      </c>
+      <c r="H152">
+        <f t="shared" ref="H152" si="57">AVERAGE(D152:D161)</f>
+        <v>4.2110000003958647E-5</v>
+      </c>
+      <c r="I152">
+        <f t="shared" ref="I152" si="58">AVERAGE(E152:E161)</f>
+        <v>4.0069999977276851E-5</v>
+      </c>
+      <c r="J152">
+        <f t="shared" ref="J152" si="59">AVERAGE(F152:F161)</f>
+        <v>8.2179999981235458E-5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="14">
         <v>23</v>
       </c>
@@ -8947,7 +9505,7 @@
         <v>6.3699999827804195E-5</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="14">
         <v>23</v>
       </c>
@@ -8967,7 +9525,7 @@
         <v>8.4599999809142901E-5</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="14">
         <v>23</v>
       </c>
@@ -8987,7 +9545,7 @@
         <v>6.4599999859638006E-5</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="14">
         <v>23</v>
       </c>
@@ -9007,7 +9565,7 @@
         <v>6.4400000155728695E-5</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="14">
         <v>23</v>
       </c>
@@ -9027,7 +9585,7 @@
         <v>1.1250000034124201E-4</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="14">
         <v>23</v>
       </c>
@@ -9047,7 +9605,7 @@
         <v>6.3899999531713507E-5</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="14">
         <v>23</v>
       </c>
@@ -9067,7 +9625,7 @@
         <v>7.9700000242155497E-5</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="14">
         <v>23</v>
       </c>
@@ -9087,7 +9645,7 @@
         <v>9.9500000487751095E-5</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="14">
         <v>23</v>
       </c>
@@ -9107,7 +9665,7 @@
         <v>1.1419999964346E-4</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="16">
         <v>24</v>
       </c>
@@ -9126,8 +9684,24 @@
       <c r="F162" s="16">
         <v>1.41999999868858E-4</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G162">
+        <f>AVERAGE(C162:C171)</f>
+        <v>5.9283999999024616E-4</v>
+      </c>
+      <c r="H162">
+        <f t="shared" ref="H162" si="60">AVERAGE(D162:D171)</f>
+        <v>4.7739999945406396E-5</v>
+      </c>
+      <c r="I162">
+        <f t="shared" ref="I162" si="61">AVERAGE(E162:E171)</f>
+        <v>5.3400000069814214E-5</v>
+      </c>
+      <c r="J162">
+        <f t="shared" ref="J162" si="62">AVERAGE(F162:F171)</f>
+        <v>1.0114000001522053E-4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="16">
         <v>24</v>
       </c>
@@ -9147,7 +9721,7 @@
         <v>1.16300000172486E-4</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="16">
         <v>24</v>
       </c>
@@ -9167,7 +9741,7 @@
         <v>1.11800000013317E-4</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="16">
         <v>24</v>
       </c>
@@ -9187,7 +9761,7 @@
         <v>9.8099999831902096E-5</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="16">
         <v>24</v>
       </c>
@@ -9207,7 +9781,7 @@
         <v>8.6900000042078305E-5</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="16">
         <v>24</v>
       </c>
@@ -9227,7 +9801,7 @@
         <v>8.5700000454380602E-5</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="16">
         <v>24</v>
       </c>
@@ -9246,8 +9820,9 @@
       <c r="F168" s="16">
         <v>1.17699999918841E-4</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H168" s="1"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="16">
         <v>24</v>
       </c>
@@ -9266,8 +9841,9 @@
       <c r="F169" s="17">
         <v>8.4199999946576995E-5</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H169" s="1"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="16">
         <v>24</v>
       </c>
@@ -9286,8 +9862,9 @@
       <c r="F170" s="17">
         <v>8.4900000274501495E-5</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H170" s="1"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="16">
         <v>24</v>
       </c>
@@ -9306,15 +9883,532 @@
       <c r="F171" s="17">
         <v>8.3799999629263698E-5</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H171" s="1"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F172" s="1"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G172" t="e">
+        <f>AVERAGE(C172:C181)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H172" t="e">
+        <f t="shared" ref="H172" si="63">AVERAGE(D172:D181)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I172" t="e">
+        <f t="shared" ref="I172" si="64">AVERAGE(E172:E181)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J172" t="e">
+        <f t="shared" ref="J172" si="65">AVERAGE(F172:F181)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F173" s="1"/>
+    </row>
+    <row r="182" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G182" t="e">
+        <f>AVERAGE(C182:C191)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H182" t="e">
+        <f t="shared" ref="H182" si="66">AVERAGE(D182:D191)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I182" t="e">
+        <f t="shared" ref="I182" si="67">AVERAGE(E182:E191)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J182" t="e">
+        <f t="shared" ref="J182" si="68">AVERAGE(F182:F191)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="188" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H188" s="1"/>
+    </row>
+    <row r="189" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H189" s="1"/>
+    </row>
+    <row r="190" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H190" s="1"/>
+    </row>
+    <row r="191" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H191" s="1"/>
+    </row>
+    <row r="192" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G192" t="e">
+        <f>AVERAGE(C192:C201)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H192" t="e">
+        <f t="shared" ref="H192" si="69">AVERAGE(D192:D201)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I192" t="e">
+        <f t="shared" ref="I192" si="70">AVERAGE(E192:E201)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J192" t="e">
+        <f t="shared" ref="J192" si="71">AVERAGE(F192:F201)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="193" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H193" s="1"/>
+    </row>
+    <row r="194" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H194" s="1"/>
+    </row>
+    <row r="195" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H195" s="1"/>
+    </row>
+    <row r="196" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H196" s="1"/>
+    </row>
+    <row r="197" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H197" s="1"/>
+    </row>
+    <row r="198" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H198" s="1"/>
+    </row>
+    <row r="199" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H199" s="1"/>
+    </row>
+    <row r="202" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G202" t="e">
+        <f>AVERAGE(C202:C211)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H202" t="e">
+        <f t="shared" ref="H202" si="72">AVERAGE(D202:D211)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I202" t="e">
+        <f t="shared" ref="I202" si="73">AVERAGE(E202:E211)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J202" t="e">
+        <f t="shared" ref="J202" si="74">AVERAGE(F202:F211)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="208" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H208" s="1"/>
+    </row>
+    <row r="209" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H209" s="1"/>
+    </row>
+    <row r="210" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H210" s="1"/>
+    </row>
+    <row r="211" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H211" s="1"/>
+    </row>
+    <row r="212" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G212" t="e">
+        <f>AVERAGE(C212:C221)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H212" t="e">
+        <f t="shared" ref="H212" si="75">AVERAGE(D212:D221)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I212" t="e">
+        <f t="shared" ref="I212" si="76">AVERAGE(E212:E221)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J212" t="e">
+        <f t="shared" ref="J212" si="77">AVERAGE(F212:F221)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="222" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G222" t="e">
+        <f>AVERAGE(C222:C231)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H222" t="e">
+        <f t="shared" ref="H222" si="78">AVERAGE(D222:D231)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I222" t="e">
+        <f t="shared" ref="I222" si="79">AVERAGE(E222:E231)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J222" t="e">
+        <f t="shared" ref="J222" si="80">AVERAGE(F222:F231)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="228" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H228" s="1"/>
+    </row>
+    <row r="229" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H229" s="1"/>
+    </row>
+    <row r="230" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H230" s="1"/>
+    </row>
+    <row r="231" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H231" s="1"/>
+    </row>
+    <row r="232" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G232" t="e">
+        <f>AVERAGE(C232:C241)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H232" t="e">
+        <f t="shared" ref="H232" si="81">AVERAGE(D232:D241)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I232" t="e">
+        <f t="shared" ref="I232" si="82">AVERAGE(E232:E241)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J232" t="e">
+        <f t="shared" ref="J232" si="83">AVERAGE(F232:F241)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="242" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G242" t="e">
+        <f>AVERAGE(C242:C251)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H242" t="e">
+        <f t="shared" ref="H242" si="84">AVERAGE(D242:D251)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I242" t="e">
+        <f t="shared" ref="I242" si="85">AVERAGE(E242:E251)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J242" t="e">
+        <f t="shared" ref="J242" si="86">AVERAGE(F242:F251)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="248" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H248" s="1"/>
+    </row>
+    <row r="249" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H249" s="1"/>
+    </row>
+    <row r="250" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H250" s="1"/>
+    </row>
+    <row r="251" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H251" s="1"/>
+    </row>
+    <row r="252" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G252" t="e">
+        <f>AVERAGE(C252:C261)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H252" t="e">
+        <f t="shared" ref="H252" si="87">AVERAGE(D252:D261)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I252" t="e">
+        <f t="shared" ref="I252" si="88">AVERAGE(E252:E261)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J252" t="e">
+        <f t="shared" ref="J252" si="89">AVERAGE(F252:F261)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="253" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H253" s="1"/>
+    </row>
+    <row r="254" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H254" s="1"/>
+    </row>
+    <row r="255" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H255" s="1"/>
+    </row>
+    <row r="256" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H256" s="1"/>
+    </row>
+    <row r="257" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H257" s="1"/>
+    </row>
+    <row r="258" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H258" s="1"/>
+    </row>
+    <row r="259" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H259" s="1"/>
+    </row>
+    <row r="262" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G262" t="e">
+        <f>AVERAGE(C262:C271)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H262" t="e">
+        <f t="shared" ref="H262" si="90">AVERAGE(D262:D271)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I262" t="e">
+        <f t="shared" ref="I262" si="91">AVERAGE(E262:E271)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J262" t="e">
+        <f t="shared" ref="J262" si="92">AVERAGE(F262:F271)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="268" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H268" s="1"/>
+    </row>
+    <row r="269" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H269" s="1"/>
+    </row>
+    <row r="270" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H270" s="1"/>
+    </row>
+    <row r="271" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H271" s="1"/>
+    </row>
+    <row r="272" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G272" t="e">
+        <f>AVERAGE(C272:C281)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H272" t="e">
+        <f t="shared" ref="H272" si="93">AVERAGE(D272:D281)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I272" t="e">
+        <f t="shared" ref="I272" si="94">AVERAGE(E272:E281)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J272" t="e">
+        <f t="shared" ref="J272" si="95">AVERAGE(F272:F281)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="282" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G282" t="e">
+        <f>AVERAGE(C282:C291)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H282" t="e">
+        <f t="shared" ref="H282" si="96">AVERAGE(D282:D291)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I282" t="e">
+        <f t="shared" ref="I282" si="97">AVERAGE(E282:E291)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J282" t="e">
+        <f t="shared" ref="J282" si="98">AVERAGE(F282:F291)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="288" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H288" s="1"/>
+    </row>
+    <row r="289" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H289" s="1"/>
+    </row>
+    <row r="290" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H290" s="1"/>
+    </row>
+    <row r="291" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H291" s="1"/>
+    </row>
+    <row r="292" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G292" t="e">
+        <f>AVERAGE(C292:C301)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H292" t="e">
+        <f t="shared" ref="H292" si="99">AVERAGE(D292:D301)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I292" t="e">
+        <f t="shared" ref="I292" si="100">AVERAGE(E292:E301)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J292" t="e">
+        <f t="shared" ref="J292" si="101">AVERAGE(F292:F301)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="302" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G302" t="e">
+        <f>AVERAGE(C302:C311)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H302" t="e">
+        <f t="shared" ref="H302" si="102">AVERAGE(D302:D311)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I302" t="e">
+        <f t="shared" ref="I302" si="103">AVERAGE(E302:E311)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J302" t="e">
+        <f t="shared" ref="J302" si="104">AVERAGE(F302:F311)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="308" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H308" s="1"/>
+    </row>
+    <row r="309" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H309" s="1"/>
+    </row>
+    <row r="310" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H310" s="1"/>
+    </row>
+    <row r="311" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H311" s="1"/>
+    </row>
+    <row r="312" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G312" t="e">
+        <f>AVERAGE(C312:C321)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H312" t="e">
+        <f t="shared" ref="H312" si="105">AVERAGE(D312:D321)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I312" t="e">
+        <f t="shared" ref="I312" si="106">AVERAGE(E312:E321)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J312" t="e">
+        <f t="shared" ref="J312" si="107">AVERAGE(F312:F321)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="313" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H313" s="1"/>
+    </row>
+    <row r="314" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H314" s="1"/>
+    </row>
+    <row r="315" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H315" s="1"/>
+    </row>
+    <row r="316" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H316" s="1"/>
+    </row>
+    <row r="317" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H317" s="1"/>
+    </row>
+    <row r="318" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H318" s="1"/>
+    </row>
+    <row r="319" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H319" s="1"/>
+    </row>
+    <row r="322" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G322" t="e">
+        <f>AVERAGE(C322:C331)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H322" t="e">
+        <f t="shared" ref="H322" si="108">AVERAGE(D322:D331)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I322" t="e">
+        <f t="shared" ref="I322" si="109">AVERAGE(E322:E331)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J322" t="e">
+        <f t="shared" ref="J322" si="110">AVERAGE(F322:F331)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="328" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H328" s="1"/>
+    </row>
+    <row r="329" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H329" s="1"/>
+    </row>
+    <row r="330" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H330" s="1"/>
+    </row>
+    <row r="331" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H331" s="1"/>
+    </row>
+    <row r="332" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G332" t="e">
+        <f>AVERAGE(C332:C341)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H332" t="e">
+        <f t="shared" ref="H332" si="111">AVERAGE(D332:D341)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I332" t="e">
+        <f t="shared" ref="I332" si="112">AVERAGE(E332:E341)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J332" t="e">
+        <f t="shared" ref="J332" si="113">AVERAGE(F332:F341)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="342" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G342" t="e">
+        <f>AVERAGE(C342:C351)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H342" t="e">
+        <f t="shared" ref="H342" si="114">AVERAGE(D342:D351)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I342" t="e">
+        <f t="shared" ref="I342" si="115">AVERAGE(E342:E351)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J342" t="e">
+        <f t="shared" ref="J342" si="116">AVERAGE(F342:F351)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="348" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H348" s="1"/>
+    </row>
+    <row r="349" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H349" s="1"/>
+    </row>
+    <row r="350" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H350" s="1"/>
+    </row>
+    <row r="351" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H351" s="1"/>
+    </row>
+    <row r="352" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G352" t="e">
+        <f>AVERAGE(C352:C361)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H352" t="e">
+        <f t="shared" ref="H352" si="117">AVERAGE(D352:D361)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I352" t="e">
+        <f t="shared" ref="I352" si="118">AVERAGE(E352:E361)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J352" t="e">
+        <f t="shared" ref="J352" si="119">AVERAGE(F352:F361)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="M2:P18" formulaRange="1"/>
+    <ignoredError sqref="M19:P20 M21:M32" evalError="1" formulaRange="1"/>
+    <ignoredError sqref="N21:P32" evalError="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>